--- a/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2866</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>753</v>
+        <v>1378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5025</v>
+        <v>5011</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4994552438654813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1312436222975505</v>
+        <v>0.2401867018479052</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.875796230667571</v>
+        <v>0.8732386103981208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>10473</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7617</v>
+        <v>7492</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12399</v>
+        <v>12428</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.754052039912557</v>
+        <v>0.7540520399125569</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5483873438827518</v>
+        <v>0.539405295411055</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8927175448881794</v>
+        <v>0.8948278929566439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -783,19 +783,19 @@
         <v>13339</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9835</v>
+        <v>10250</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16128</v>
+        <v>16370</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6796218175819095</v>
+        <v>0.6796218175819096</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5010843074269475</v>
+        <v>0.5222417161624372</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8217400825692927</v>
+        <v>0.8340800818403727</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4985</v>
+        <v>4360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5005447561345188</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.124203769332429</v>
+        <v>0.1268439253440865</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8687563777024496</v>
+        <v>0.7598601756892378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>3416</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1490</v>
+        <v>1461</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6272</v>
+        <v>6397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.245947960087443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1072824551118205</v>
+        <v>0.105172107043356</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4516126561172485</v>
+        <v>0.4605947045889452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -854,19 +854,19 @@
         <v>6288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3499</v>
+        <v>3257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9792</v>
+        <v>9377</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3203781824180905</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1782599174307073</v>
+        <v>0.1659199181596269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4989156925730523</v>
+        <v>0.4777582838375627</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>2922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4801</v>
+        <v>4802</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5133249325835619</v>
+        <v>0.513324932583562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1660869879606271</v>
+        <v>0.1663835801725359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8433927537776407</v>
+        <v>0.8435832973355474</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -979,19 +979,19 @@
         <v>12112</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9734</v>
+        <v>9480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13357</v>
+        <v>13347</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8725392062624729</v>
+        <v>0.8725392062624731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7012254137099165</v>
+        <v>0.6829301374693763</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9622461431852759</v>
+        <v>0.9615450841613743</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1000,19 +1000,19 @@
         <v>15034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11292</v>
+        <v>11198</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17863</v>
+        <v>17802</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7680801847438888</v>
+        <v>0.7680801847438891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5768966229847748</v>
+        <v>0.5721285799611031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9126277219059709</v>
+        <v>0.9095431209370738</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2770</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4747</v>
+        <v>4745</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.486675067416438</v>
+        <v>0.4866750674164378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.156552725876442</v>
+        <v>0.1560548935115614</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8339054173119161</v>
+        <v>0.8336111842112488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1050,19 +1050,19 @@
         <v>1769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4147</v>
+        <v>4401</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.127460793737527</v>
+        <v>0.1274607937375269</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03775385681472414</v>
+        <v>0.03845491583862579</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.298774586290082</v>
+        <v>0.3170698625306236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1071,19 +1071,19 @@
         <v>4539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1710</v>
+        <v>1771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8281</v>
+        <v>8375</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.231919815256111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08737227809402925</v>
+        <v>0.09045687906292628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4231033770152244</v>
+        <v>0.427871420038897</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>5181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2805</v>
+        <v>2848</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6873</v>
+        <v>6891</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6514460018739109</v>
+        <v>0.6514460018739108</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3526495060375404</v>
+        <v>0.3580642952619563</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8641420992670411</v>
+        <v>0.8664528001295624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1196,19 +1196,19 @@
         <v>4817</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2611</v>
+        <v>2662</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7233</v>
+        <v>7285</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4344603819838717</v>
+        <v>0.4344603819838714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2355064047438913</v>
+        <v>0.2401454615598346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6523815274016579</v>
+        <v>0.6570715065496824</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1217,19 +1217,19 @@
         <v>9998</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7094</v>
+        <v>6557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13079</v>
+        <v>12879</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5250948610903714</v>
+        <v>0.5250948610903713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3725752993449189</v>
+        <v>0.3443515909652625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6868958226452</v>
+        <v>0.6763972244321858</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>2772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5148</v>
+        <v>5105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3485539981260891</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1358579007329588</v>
+        <v>0.1335471998704378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6473504939624598</v>
+        <v>0.6419357047380437</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1267,19 +1267,19 @@
         <v>6270</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3854</v>
+        <v>3802</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8476</v>
+        <v>8425</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5655396180161285</v>
+        <v>0.5655396180161283</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.347618472598342</v>
+        <v>0.3429284934503192</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7644935952561089</v>
+        <v>0.7598545384401649</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1288,19 +1288,19 @@
         <v>9043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5962</v>
+        <v>6162</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11947</v>
+        <v>12484</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4749051389096288</v>
+        <v>0.4749051389096286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3131041773548002</v>
+        <v>0.3236027755678142</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.627424700655081</v>
+        <v>0.6556484090347385</v>
       </c>
     </row>
     <row r="12">
@@ -1405,19 +1405,19 @@
         <v>3524</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2103</v>
+        <v>1778</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4436</v>
+        <v>4443</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7260713605446683</v>
+        <v>0.7260713605446684</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4333187992622895</v>
+        <v>0.3662924399558866</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9141482018255552</v>
+        <v>0.9154283437449926</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1426,19 +1426,19 @@
         <v>6434</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4650</v>
+        <v>4790</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7382</v>
+        <v>7395</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8287396418472509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5990425307820574</v>
+        <v>0.6170194514901842</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9509814259404318</v>
+        <v>0.9525977809816334</v>
       </c>
     </row>
     <row r="14">
@@ -1468,19 +1468,19 @@
         <v>1329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2750</v>
+        <v>3075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2739286394553316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0858517981744447</v>
+        <v>0.08457165625500736</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5666812007377107</v>
+        <v>0.6337075600441134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1489,19 +1489,19 @@
         <v>1329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3113</v>
+        <v>2973</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1712603581527489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04901857405956817</v>
+        <v>0.04740221901836656</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4009574692179424</v>
+        <v>0.3829805485098161</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1762,19 @@
         <v>5504</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4052</v>
+        <v>3823</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6707</v>
+        <v>6362</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8206268520074008</v>
+        <v>0.8206268520074009</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6041611063629079</v>
+        <v>0.5700375560011932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1</v>
+        <v>0.9485292964538062</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1783,19 +1783,19 @@
         <v>11667</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9242</v>
+        <v>9507</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13389</v>
+        <v>13501</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7349657109756998</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5822386094827736</v>
+        <v>0.5988883257491507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8434587955845534</v>
+        <v>0.850502253557419</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1804,19 +1804,19 @@
         <v>17171</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14433</v>
+        <v>14287</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19415</v>
+        <v>19360</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7604091883759373</v>
+        <v>0.7604091883759372</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6391646984149274</v>
+        <v>0.6327182925630429</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.859806809448775</v>
+        <v>0.8573727444187027</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>1203</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2655</v>
+        <v>2884</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1793731479925991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0</v>
+        <v>0.05147070354619369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3958388936370921</v>
+        <v>0.429962443998807</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1854,19 +1854,19 @@
         <v>4207</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2485</v>
+        <v>2373</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6632</v>
+        <v>6367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2650342890243002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1565412044154467</v>
+        <v>0.1494977464425809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4177613905172263</v>
+        <v>0.4011116742508493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1875,19 +1875,19 @@
         <v>5410</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3166</v>
+        <v>3221</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8148</v>
+        <v>8294</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2395908116240628</v>
+        <v>0.2395908116240627</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1401931905512253</v>
+        <v>0.1426272555812971</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3608353015850725</v>
+        <v>0.3672817074369568</v>
       </c>
     </row>
     <row r="21">
@@ -1979,19 +1979,19 @@
         <v>2805</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5423</v>
+        <v>5449</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4495677481833538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1315776501266189</v>
+        <v>0.1328013096959005</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.869046094823443</v>
+        <v>0.8732775050091056</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2000,19 +2000,19 @@
         <v>16605</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13016</v>
+        <v>12955</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19259</v>
+        <v>19283</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7806202421101134</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6119248345355227</v>
+        <v>0.6090420355655256</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9054027476204196</v>
+        <v>0.9065232127856706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2021,19 +2021,19 @@
         <v>19410</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15162</v>
+        <v>14721</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23243</v>
+        <v>23008</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7055336520229772</v>
+        <v>0.7055336520229774</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5511402373011325</v>
+        <v>0.5350979270575974</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8448549243282607</v>
+        <v>0.8363178262947457</v>
       </c>
     </row>
     <row r="23">
@@ -2050,19 +2050,19 @@
         <v>3435</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5419</v>
+        <v>5404</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5504322518166462</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1309539051765571</v>
+        <v>0.1267224949908945</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8684080328818111</v>
+        <v>0.8659651337229589</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2071,19 +2071,19 @@
         <v>4666</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8255</v>
+        <v>8316</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2193797578898868</v>
+        <v>0.2193797578898869</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09459725237958024</v>
+        <v>0.09347678721432943</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3880751654644771</v>
+        <v>0.3909579644344742</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2092,19 +2092,19 @@
         <v>8101</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4268</v>
+        <v>4503</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12349</v>
+        <v>12790</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2944663479770226</v>
+        <v>0.2944663479770227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1551450756717393</v>
+        <v>0.1636821737052542</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4488597626988675</v>
+        <v>0.4649020729424027</v>
       </c>
     </row>
     <row r="24">
@@ -2217,19 +2217,19 @@
         <v>5179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2735</v>
+        <v>2743</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7013</v>
+        <v>7015</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.679434126076956</v>
+        <v>0.6794341260769559</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3588618630905314</v>
+        <v>0.3598265136918423</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.920156619382531</v>
+        <v>0.9203280858766715</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2238,19 +2238,19 @@
         <v>5847</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3342</v>
+        <v>3394</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7728</v>
+        <v>7791</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6533289557958533</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3734263276361532</v>
+        <v>0.3792508509326568</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.863530785350484</v>
+        <v>0.8705794525503788</v>
       </c>
     </row>
     <row r="26">
@@ -2288,19 +2288,19 @@
         <v>2443</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4887</v>
+        <v>4879</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3205658739230441</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07984338061746907</v>
+        <v>0.07967191412332847</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6411381369094686</v>
+        <v>0.6401734863081577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2309,19 +2309,19 @@
         <v>3102</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1221</v>
+        <v>1158</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5607</v>
+        <v>5555</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3466710442041466</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1364692146495161</v>
+        <v>0.1294205474496211</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6265736723638478</v>
+        <v>0.6207491490673431</v>
       </c>
     </row>
     <row r="27">
@@ -2413,19 +2413,19 @@
         <v>24393</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6401745472237639</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>123</v>
@@ -2434,19 +2434,19 @@
         <v>64902</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>58372</v>
+        <v>58671</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70339</v>
+        <v>70528</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7292012165671371</v>
+        <v>0.7292012165671372</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6558374810420674</v>
+        <v>0.6591992303814431</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7902907998026882</v>
+        <v>0.7924149587477185</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>163</v>
@@ -2455,19 +2455,19 @@
         <v>89295</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>81210</v>
+        <v>81512</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96862</v>
+        <v>97160</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.702513263600106</v>
+        <v>0.7025132636001061</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6389084942220862</v>
+        <v>0.6412783470582182</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7620444482468249</v>
+        <v>0.7643902439353749</v>
       </c>
     </row>
     <row r="29">
@@ -2484,19 +2484,19 @@
         <v>13711</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -2505,19 +2505,19 @@
         <v>24102</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18665</v>
+        <v>18476</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30632</v>
+        <v>30333</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2707987834328629</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2097092001973117</v>
+        <v>0.2075850412522814</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3441625189579326</v>
+        <v>0.3408007696185565</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>68</v>
@@ -2526,19 +2526,19 @@
         <v>37813</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30246</v>
+        <v>29948</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45898</v>
+        <v>45596</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2974867363998938</v>
+        <v>0.2974867363998939</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2379555517531751</v>
+        <v>0.2356097560646251</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3610915057779139</v>
+        <v>0.3587216529417819</v>
       </c>
     </row>
     <row r="30">
